--- a/processed_data/problem_1/line_1.xlsx
+++ b/processed_data/problem_1/line_1.xlsx
@@ -476,7 +476,7 @@
         <v>370</v>
       </c>
       <c r="E2" t="n">
-        <v>4320</v>
+        <v>1350</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -500,7 +500,7 @@
         <v>300</v>
       </c>
       <c r="E3" t="n">
-        <v>4320</v>
+        <v>1350</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -524,7 +524,7 @@
         <v>400</v>
       </c>
       <c r="E4" t="n">
-        <v>36000</v>
+        <v>11250</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
